--- a/output/MOMENTUM/rebalance/rebalance_20250630.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20250630.xlsx
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02795013880968701</v>
+        <v>0.0279425960215404</v>
       </c>
       <c r="C2" t="n">
         <v>0.02085928114012367</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.007090857669563341</v>
+        <v>-0.007083314881416735</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02884888364068152</v>
+        <v>0.028847239304295</v>
       </c>
       <c r="C3" t="n">
         <v>0.02085928114012367</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.007989602500557857</v>
+        <v>-0.007987958164171336</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02493189503140749</v>
+        <v>0.0249333166120244</v>
       </c>
       <c r="C4" t="n">
         <v>0.0207435493293066</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.004188345702100894</v>
+        <v>-0.004189767282717805</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02606471205782673</v>
+        <v>0.02605923291810298</v>
       </c>
       <c r="C5" t="n">
         <v>0.02073252725208593</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.005332184805740808</v>
+        <v>-0.005326705666017052</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02350626765994716</v>
+        <v>0.02350340090395793</v>
       </c>
       <c r="C9" t="n">
         <v>0.02061128440265852</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.002894983257288642</v>
+        <v>-0.002892116501299405</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02291767013227878</v>
+        <v>0.02291813163976563</v>
       </c>
       <c r="C10" t="n">
         <v>0.02060026232543785</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.002317407806840928</v>
+        <v>-0.002317869314327783</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02077085184217826</v>
+        <v>0.02076955942614975</v>
       </c>
       <c r="C11" t="n">
         <v>0.0205782181709965</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0001926336711817606</v>
+        <v>-0.0001913412551532503</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02439254695536986</v>
+        <v>0.02438918262880535</v>
       </c>
       <c r="C13" t="n">
         <v>0.02049004155323112</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003902505402138743</v>
+        <v>-0.003899141075574233</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02212320434985007</v>
+        <v>0.02212155562655387</v>
       </c>
       <c r="C19" t="n">
         <v>0.02020346754549362</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.001919736804356448</v>
+        <v>-0.001918088081060244</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02382046755230945</v>
+        <v>0.02381729538708461</v>
       </c>
       <c r="C23" t="n">
         <v>0.02008222469606622</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.003738242856243235</v>
+        <v>-0.003735070691018392</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02071394563231495</v>
+        <v>0.0207140366900436</v>
       </c>
       <c r="C24" t="n">
         <v>0.02007120261884555</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0006427430134694004</v>
+        <v>-0.0006428340711980493</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02205798184310776</v>
+        <v>0.02205795632513903</v>
       </c>
       <c r="C25" t="n">
         <v>0.0200491584644042</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.002008823378703558</v>
+        <v>-0.00200879786073483</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02028320973462568</v>
+        <v>0.02028438260701146</v>
       </c>
       <c r="C28" t="n">
         <v>0.01996098184663881</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0003222278879868694</v>
+        <v>-0.0003234007603726413</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02107384803618941</v>
+        <v>0.02107408683563034</v>
       </c>
       <c r="C30" t="n">
         <v>0.0198838273060941</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.001190020730095304</v>
+        <v>-0.001190259529536237</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0224953552058961</v>
+        <v>0.02249497659451128</v>
       </c>
       <c r="C32" t="n">
         <v>0.01986178315165276</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.002633572054243347</v>
+        <v>-0.002633193442858523</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02255829817508273</v>
+        <v>0.02255426092854048</v>
       </c>
       <c r="C34" t="n">
         <v>0.01970747407056334</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.002850824104519391</v>
+        <v>-0.002846786857977145</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02020973370534279</v>
+        <v>0.02021181238663809</v>
       </c>
       <c r="C38" t="n">
         <v>0.01960827537557728</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0006014583297655092</v>
+        <v>-0.0006035370110608132</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02113634405623064</v>
+        <v>0.02113646228978015</v>
       </c>
       <c r="C42" t="n">
         <v>0.01949805460337055</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.001638289452860087</v>
+        <v>-0.001638407686409601</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01966120339789281</v>
+        <v>0.01966242180109071</v>
       </c>
       <c r="C45" t="n">
         <v>0.01938783383116382</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.0002733695667289891</v>
+        <v>-0.000274587969926892</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02053384980538315</v>
+        <v>0.02053296210940115</v>
       </c>
       <c r="C48" t="n">
         <v>0.01920045851841238</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.001333391286970777</v>
+        <v>-0.001332503590988774</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01719926114920863</v>
+        <v>0.01720042202531726</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01719926114920863</v>
+        <v>-0.01720042202531726</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02341687347722439</v>
+        <v>0.02341582837919767</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.02341687347722439</v>
+        <v>-0.02341582837919767</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01863281298187619</v>
+        <v>0.0186342259995379</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01863281298187619</v>
+        <v>-0.0186342259995379</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01958055486446814</v>
+        <v>0.01958315453557444</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01958055486446814</v>
+        <v>-0.01958315453557444</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01828673311952686</v>
+        <v>0.01828630662796705</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01828673311952686</v>
+        <v>-0.01828630662796705</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01798618918506905</v>
+        <v>0.01798753205120304</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01798618918506905</v>
+        <v>-0.01798753205120304</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01875393126299022</v>
+        <v>0.01875523281990036</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01875393126299022</v>
+        <v>-0.01875523281990036</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01770327834290114</v>
+        <v>0.01770446632961353</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01770327834290114</v>
+        <v>-0.01770446632961353</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01565231365340914</v>
+        <v>0.01565781965683936</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01565231365340914</v>
+        <v>-0.01565781965683936</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01762232472369295</v>
+        <v>0.01762434705017077</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01762232472369295</v>
+        <v>-0.01762434705017077</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01719380058375549</v>
+        <v>0.01719454334732443</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01719380058375549</v>
+        <v>-0.01719454334732443</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01949099575593466</v>
+        <v>0.01949144194672904</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01949099575593466</v>
+        <v>-0.01949144194672904</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01922508339241304</v>
+        <v>0.01922496622306998</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01922508339241304</v>
+        <v>-0.01922496622306998</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01771336288881259</v>
+        <v>0.01771429932952667</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01771336288881259</v>
+        <v>-0.01771429932952667</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01819967943032148</v>
+        <v>0.01819911335462254</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01819967943032148</v>
+        <v>-0.01819911335462254</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01707253157110599</v>
+        <v>0.01707305262203497</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01707253157110599</v>
+        <v>-0.01707305262203497</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0146464079891854</v>
+        <v>0.01465151025128564</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.0146464079891854</v>
+        <v>-0.01465151025128564</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01854083577804851</v>
+        <v>0.01854117367691315</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01854083577804851</v>
+        <v>-0.01854117367691315</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0174273447352362</v>
+        <v>0.01742631916233414</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.0174273447352362</v>
+        <v>-0.01742631916233414</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01785722026773116</v>
+        <v>0.01785798208502809</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01785722026773116</v>
+        <v>-0.01785798208502809</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01567723983740297</v>
+        <v>0.01567768215771937</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01567723983740297</v>
+        <v>-0.01567768215771937</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7773,13 +7773,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01748018402448319</v>
+        <v>0.01747942980009275</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01748018402448319</v>
+        <v>-0.01747942980009275</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01524387489141673</v>
+        <v>0.01524655786810629</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01524387489141673</v>
+        <v>-0.01524655786810629</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0189669190895314</v>
+        <v>0.01896890057429958</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.0189669190895314</v>
+        <v>-0.01896890057429958</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7836,13 +7836,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01894057168854815</v>
+        <v>0.01894214703481717</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01894057168854815</v>
+        <v>-0.01894214703481717</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.02033601274480832</v>
+        <v>0.02033523829543985</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.02033601274480832</v>
+        <v>-0.02033523829543985</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7878,13 +7878,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02001467275190703</v>
+        <v>0.02001499057231005</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02001467275190703</v>
+        <v>-0.02001499057231005</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01835590942065396</v>
+        <v>0.01835413132227179</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01835590942065396</v>
+        <v>-0.01835413132227179</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01754065717404463</v>
+        <v>0.01754073018877891</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01754065717404463</v>
+        <v>-0.01754073018877891</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7941,13 +7941,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01919201560068994</v>
+        <v>0.01919158567590804</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01919201560068994</v>
+        <v>-0.01919158567590804</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>

--- a/output/MOMENTUM/rebalance/rebalance_20250630.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20250630.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>59.70%</t>
+          <t>59.80%</t>
         </is>
       </c>
     </row>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0279425960215404</v>
+        <v>0.02779010480470826</v>
       </c>
       <c r="C2" t="n">
         <v>0.02085928114012367</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.007083314881416735</v>
+        <v>-0.006930823664584598</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.028847239304295</v>
+        <v>0.02913865383542372</v>
       </c>
       <c r="C3" t="n">
         <v>0.02085928114012367</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.007987958164171336</v>
+        <v>-0.008279372695300057</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0249333166120244</v>
+        <v>0.02518232136223284</v>
       </c>
       <c r="C4" t="n">
         <v>0.0207435493293066</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.004189767282717805</v>
+        <v>-0.004438772032926246</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02605923291810298</v>
+        <v>0.02632651687436547</v>
       </c>
       <c r="C5" t="n">
         <v>0.02073252725208593</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.005326705666017052</v>
+        <v>-0.005593989622279544</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02350340090395793</v>
+        <v>0.02374237439608028</v>
       </c>
       <c r="C9" t="n">
         <v>0.02061128440265852</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.002892116501299405</v>
+        <v>-0.003131089993421762</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02291813163976563</v>
+        <v>0.02314786474985848</v>
       </c>
       <c r="C10" t="n">
         <v>0.02060026232543785</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.002317869314327783</v>
+        <v>-0.002547602424420637</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,17 +6471,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02076955942614975</v>
+        <v>0.02051515190799063</v>
       </c>
       <c r="C11" t="n">
         <v>0.0205782181709965</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0001913412551532503</v>
+        <v>6.3066263005878e-05</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02438918262880535</v>
+        <v>0.02463755584963254</v>
       </c>
       <c r="C13" t="n">
         <v>0.02049004155323112</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003899141075574233</v>
+        <v>-0.004147514296401419</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02212155562655387</v>
+        <v>0.02234541902243926</v>
       </c>
       <c r="C19" t="n">
         <v>0.02020346754549362</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.001918088081060244</v>
+        <v>-0.002141951476945642</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02381729538708461</v>
+        <v>0.02378626445656962</v>
       </c>
       <c r="C23" t="n">
         <v>0.02008222469606622</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.003735070691018392</v>
+        <v>-0.003704039760503406</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0207140366900436</v>
+        <v>0.02092200512378488</v>
       </c>
       <c r="C24" t="n">
         <v>0.02007120261884555</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0006428340711980493</v>
+        <v>-0.0008508025049393346</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02205795632513903</v>
+        <v>0.02227954139369238</v>
       </c>
       <c r="C25" t="n">
         <v>0.0200491584644042</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.00200879786073483</v>
+        <v>-0.002230382929288181</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6828,17 +6828,17 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02028438260701146</v>
+        <v>0.01907234990020813</v>
       </c>
       <c r="C28" t="n">
         <v>0.01996098184663881</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0003234007603726413</v>
+        <v>0.0008886319464306881</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02107408683563034</v>
+        <v>0.02081941620427065</v>
       </c>
       <c r="C30" t="n">
         <v>0.0198838273060941</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.001190259529536237</v>
+        <v>-0.0009355888981765481</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02249497659451128</v>
+        <v>0.02272130791657971</v>
       </c>
       <c r="C32" t="n">
         <v>0.01986178315165276</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.002633193442858523</v>
+        <v>-0.002859524764926957</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02255426092854048</v>
+        <v>0.0227848831111469</v>
       </c>
       <c r="C34" t="n">
         <v>0.01970747407056334</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.002846786857977145</v>
+        <v>-0.003077409040583564</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02021181238663809</v>
+        <v>0.02011650261995661</v>
       </c>
       <c r="C38" t="n">
         <v>0.01960827537557728</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0006035370110608132</v>
+        <v>-0.0005082272443793293</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02113646228978015</v>
+        <v>0.02134864629328066</v>
       </c>
       <c r="C42" t="n">
         <v>0.01949805460337055</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.001638407686409601</v>
+        <v>-0.00185059168991011</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01966242180109071</v>
+        <v>0.01985868870818881</v>
       </c>
       <c r="C45" t="n">
         <v>0.01938783383116382</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.000274587969926892</v>
+        <v>-0.000470854877024994</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02053296210940115</v>
+        <v>0.02074010033940806</v>
       </c>
       <c r="C48" t="n">
         <v>0.01920045851841238</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.001332503590988774</v>
+        <v>-0.001539641820995686</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01720042202531726</v>
+        <v>0.01737201768685158</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01720042202531726</v>
+        <v>-0.01737201768685158</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02341582837919767</v>
+        <v>0.02365208230097868</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.02341582837919767</v>
+        <v>-0.02365208230097868</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0186342259995379</v>
+        <v>0.01838196476747816</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.0186342259995379</v>
+        <v>-0.01838196476747816</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01958315453557444</v>
+        <v>0.0191953155832943</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01958315453557444</v>
+        <v>-0.0191953155832943</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01828630662796705</v>
+        <v>0.01847041267826624</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01828630662796705</v>
+        <v>-0.01847041267826624</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01798753205120304</v>
+        <v>0.01816684995543862</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01798753205120304</v>
+        <v>-0.01816684995543862</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01875523281990036</v>
+        <v>0.01894230355433932</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01875523281990036</v>
+        <v>-0.01894230355433932</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01770446632961353</v>
+        <v>0.01788109743901908</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01770446632961353</v>
+        <v>-0.01788109743901908</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01565781965683936</v>
+        <v>0.01498108491448973</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01565781965683936</v>
+        <v>-0.01498108491448973</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01762434705017077</v>
+        <v>0.01779933068796513</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01762434705017077</v>
+        <v>-0.01779933068796513</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01719454334732443</v>
+        <v>0.01736650227320622</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01719454334732443</v>
+        <v>-0.01736650227320622</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01949144194672904</v>
+        <v>0.01968677142983117</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01949144194672904</v>
+        <v>-0.01968677142983117</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01922496622306998</v>
+        <v>0.01941818813185256</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01922496622306998</v>
+        <v>-0.01941818813185256</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01771429932952667</v>
+        <v>0.01724957001761116</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01771429932952667</v>
+        <v>-0.01724957001761116</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01819911335462254</v>
+        <v>0.01838248458557307</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01819911335462254</v>
+        <v>-0.01838248458557307</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01707305262203497</v>
+        <v>0.01724401518411921</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01707305262203497</v>
+        <v>-0.01724401518411921</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7668,13 +7668,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01465151025128564</v>
+        <v>0.01253098385546225</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01465151025128564</v>
+        <v>-0.01253098385546225</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7689,13 +7689,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01854117367691315</v>
+        <v>0.01872706764965245</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01854117367691315</v>
+        <v>-0.01872706764965245</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01742631916233414</v>
+        <v>0.01760239223934994</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01742631916233414</v>
+        <v>-0.01760239223934994</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01785798208502809</v>
+        <v>0.01730613199735086</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01785798208502809</v>
+        <v>-0.01730613199735086</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01567768215771937</v>
+        <v>0.01583470855949584</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01567768215771937</v>
+        <v>-0.01583470855949584</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7773,13 +7773,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01747942980009275</v>
+        <v>0.01765576226841085</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01747942980009275</v>
+        <v>-0.01765576226841085</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7794,13 +7794,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01524655786810629</v>
+        <v>0.01482733461091694</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01524655786810629</v>
+        <v>-0.01482733461091694</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7815,13 +7815,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01896890057429958</v>
+        <v>0.01868673217578911</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01896890057429958</v>
+        <v>-0.01868673217578911</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7836,13 +7836,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01894214703481717</v>
+        <v>0.01896532716299396</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01894214703481717</v>
+        <v>-0.01896532716299396</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.02033523829543985</v>
+        <v>0.02054027612105325</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.02033523829543985</v>
+        <v>-0.02054027612105325</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7878,13 +7878,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02001499057231005</v>
+        <v>0.02021570845551545</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02001499057231005</v>
+        <v>-0.02021570845551545</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7899,13 +7899,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01835413132227179</v>
+        <v>0.01854028381495436</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01835413132227179</v>
+        <v>-0.01854028381495436</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01754073018877891</v>
+        <v>0.01771684283545657</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01754073018877891</v>
+        <v>-0.01771684283545657</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7941,13 +7941,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01919158567590804</v>
+        <v>0.01938478819346594</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01919158567590804</v>
+        <v>-0.01938478819346594</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
